--- a/data/automationExerciseData.xlsx
+++ b/data/automationExerciseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ABD6C7-9892-4F0E-B18B-B7780693A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01738F7E-87B8-49BA-A777-B5781DFA94AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
     <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
     <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
   <si>
     <t>sonia</t>
   </si>
@@ -300,13 +301,106 @@
   </si>
   <si>
     <t>Green Side Placket Detail T-Shirt</t>
+  </si>
+  <si>
+    <t>ProductQuantity</t>
+  </si>
+  <si>
+    <t>Product1Number</t>
+  </si>
+  <si>
+    <t>Product2Number</t>
+  </si>
+  <si>
+    <t>Product3Number</t>
+  </si>
+  <si>
+    <t>moufida</t>
+  </si>
+  <si>
+    <t>moufida12@gmail.com</t>
+  </si>
+  <si>
+    <t>marwan</t>
+  </si>
+  <si>
+    <t>marwan12@gmail.com</t>
+  </si>
+  <si>
+    <t>moufida123</t>
+  </si>
+  <si>
+    <t>marwan123</t>
+  </si>
+  <si>
+    <t>ben ahmoud</t>
+  </si>
+  <si>
+    <t>ben abdallah</t>
+  </si>
+  <si>
+    <t>improveSoftware</t>
+  </si>
+  <si>
+    <t>rue du boulanger</t>
+  </si>
+  <si>
+    <t>rue des roses</t>
+  </si>
+  <si>
+    <t>rue amanda</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>les trois riviere</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>5650</t>
+  </si>
+  <si>
+    <t>12561</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>dedzzeczefezfez</t>
+  </si>
+  <si>
+    <t>zfefgrrggegegff</t>
+  </si>
+  <si>
+    <t>NameOnCard</t>
+  </si>
+  <si>
+    <t>moufida ben mahmoud</t>
+  </si>
+  <si>
+    <t>marwan ben abdallah</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>Cvc</t>
+  </si>
+  <si>
+    <t>ExpirationMonth</t>
+  </si>
+  <si>
+    <t>ExpirationYear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +418,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -352,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -363,6 +464,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -758,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E053050-2957-41DB-97D2-5D8FCA764570}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,15 +1074,16 @@
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="4" width="22.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" customWidth="1"/>
-    <col min="7" max="9" width="26.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="13" width="22.88671875" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="39.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" customWidth="1"/>
+    <col min="8" max="10" width="26.77734375" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" customWidth="1"/>
+    <col min="13" max="14" width="22.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -983,35 +1099,38 @@
       <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -1027,35 +1146,38 @@
       <c r="E2" s="4">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -1071,31 +1193,34 @@
       <c r="E3" s="4">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>1</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1234,4 +1359,309 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45388324-871E-4712-8484-AD19E483216B}">
+  <dimension ref="A1:Z11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="33.88671875" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="23.21875" customWidth="1"/>
+    <col min="20" max="20" width="33.88671875" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" customWidth="1"/>
+    <col min="22" max="22" width="23.5546875" customWidth="1"/>
+    <col min="23" max="23" width="22.77734375" customWidth="1"/>
+    <col min="24" max="24" width="23" customWidth="1"/>
+    <col min="25" max="25" width="22.6640625" customWidth="1"/>
+    <col min="26" max="26" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43970</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>12355</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4">
+        <v>10</v>
+      </c>
+      <c r="T2" s="4">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" s="4">
+        <v>125634126</v>
+      </c>
+      <c r="X2" s="4">
+        <v>125</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10">
+        <v>25922</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="4">
+        <v>4</v>
+      </c>
+      <c r="S3" s="4">
+        <v>20</v>
+      </c>
+      <c r="T3" s="4">
+        <v>30</v>
+      </c>
+      <c r="U3" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="4">
+        <v>123566556</v>
+      </c>
+      <c r="X3" s="4">
+        <v>311</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{27067970-B95F-46EE-8161-4FFD03B7F5DD}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CB803505-D0F8-4753-81C0-E2B2919B3B5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <ignoredErrors>
+    <ignoredError sqref="P2:P3 Q3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/automationExerciseData.xlsx
+++ b/data/automationExerciseData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01738F7E-87B8-49BA-A777-B5781DFA94AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851CF350-9D51-454E-A958-6430F7B606CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
     <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
     <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
   <si>
     <t>sonia</t>
   </si>
@@ -394,6 +396,69 @@
   </si>
   <si>
     <t>ExpirationYear</t>
+  </si>
+  <si>
+    <t>sonia12@gmail.com</t>
+  </si>
+  <si>
+    <t>sonia123</t>
+  </si>
+  <si>
+    <t>wassim12@gmail.com</t>
+  </si>
+  <si>
+    <t>wassim123</t>
+  </si>
+  <si>
+    <t>sonia ben massouad</t>
+  </si>
+  <si>
+    <t>wassim ben abdallah</t>
+  </si>
+  <si>
+    <t>wassim</t>
+  </si>
+  <si>
+    <t>IndexOfProductToDelete</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>CategoryPage</t>
+  </si>
+  <si>
+    <t>WOMEN - TOPS PRODUCTS</t>
+  </si>
+  <si>
+    <t>Men - JEANS PRODUCTS</t>
+  </si>
+  <si>
+    <t>Category2</t>
+  </si>
+  <si>
+    <t>CategoryPage2</t>
+  </si>
+  <si>
+    <t>SubCategory2</t>
+  </si>
+  <si>
+    <t>tshirts</t>
+  </si>
+  <si>
+    <t>WOMEN - DRESS PRODUCTS</t>
   </si>
 </sst>
 </file>
@@ -453,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -478,6 +543,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1065,9 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E053050-2957-41DB-97D2-5D8FCA764570}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1365,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45388324-871E-4712-8484-AD19E483216B}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,4 +1728,243 @@
     <ignoredError sqref="P2:P3 Q3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D51247-9011-4946-9ED9-F21E870CC302}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="4">
+        <v>125634126</v>
+      </c>
+      <c r="K2" s="4">
+        <v>125</v>
+      </c>
+      <c r="L2" s="4">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="4">
+        <v>123566556</v>
+      </c>
+      <c r="K3" s="4">
+        <v>311</v>
+      </c>
+      <c r="L3" s="4">
+        <v>7</v>
+      </c>
+      <c r="M3" s="4">
+        <v>2030</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E9837800-CA55-4D11-BABA-0D26DC2B8F24}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{16D4CF3E-C1E1-4F11-AB33-2517F583BEE4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BA013A-63CD-415F-86A3-89DF863F9E69}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>